--- a/Multi_Cloud_Services.xlsx
+++ b/Multi_Cloud_Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Multi_Cloud_Services" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
   <si>
     <t>SNO</t>
   </si>
@@ -413,6 +413,27 @@
   </si>
   <si>
     <t>AWS EKS</t>
+  </si>
+  <si>
+    <t>AWS GAURD DUTY</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>AZURE COST ANALYSIS</t>
+  </si>
+  <si>
+    <t>AZURE PRICING CALCULATOR</t>
   </si>
 </sst>
 </file>
@@ -832,11 +853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1084,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -1078,7 +1099,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -1091,7 +1112,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -1106,7 +1127,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
@@ -1117,300 +1138,348 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="E28" s="7"/>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="E29" s="7"/>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="E30" s="7"/>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="E31" s="7"/>
+      <c r="F31">
+        <v>1030</v>
+      </c>
+      <c r="G31">
+        <v>1200</v>
+      </c>
+      <c r="H31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
+      <c r="F32">
+        <v>1200</v>
+      </c>
+      <c r="G32">
+        <v>145</v>
+      </c>
+      <c r="H32" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>28</v>
-      </c>
+      <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
+        <v>29</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
         <v>30</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>31</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
+        <v>33</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
         <v>34</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -1419,186 +1488,192 @@
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>34</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="6">
+        <v>35</v>
+      </c>
       <c r="B46" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>36</v>
-      </c>
+      <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
+        <v>37</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
         <v>38</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>39</v>
-      </c>
+      <c r="A51" s="6"/>
       <c r="B51" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="6">
+        <v>44</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
     </row>
@@ -1673,13 +1748,20 @@
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
